--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">cab97ddf-4217-4a00-aadb-54804d363f50</t>
   </si>
@@ -29,6 +29,159 @@
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">764f7f29-9b87-4014-be89-4422802a33f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодные закуски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К пиву</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96c0bdcf-34dc-45e5-81d2-90bc45c05b35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сельдь Бисмарк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8287bc35-b86d-417a-8d0c-f668c8f0e42b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мясная тарелка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86ac5950-3a1f-41e7-ad0d-7d3107bc36e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыбная тарелка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9148d8d3-7c8d-4214-a4e4-db1ac673f430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячий рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e22bef9-97cc-417c-acf7-d7100b683eea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дайзу рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2131bb99-f04d-4dcb-9675-b4f3a9717c85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Унаги рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ec935bf-f687-4b1f-96d1-34d70388eb2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чиизу Рамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c0da8f7-a91a-4644-8c43-f4f0d30a3d62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алкогольное меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алкогольные напитки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5336ad09-ce07-46ea-8b7f-fd9bf8081301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красные вина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для романтичного вечера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce990e63-5c9c-47cc-8060-50612f1581a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шемен де Пап ля Ноблесс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aec101c2-71e3-4c3e-9ad7-d46833d058dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рипароссо Монтепульчано</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вино красное, сухое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ce977a6-94e2-4b6d-ac68-496737a1bc6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кьянти, Серристори</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c277b220-6cb8-4445-b023-94bb00487b51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для интересных бесед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07407fc4-2601-4b56-a3f7-37f396ff1e68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джемисон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4ff4622-da18-49d2-a03a-89bb08ee12d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джек Дэниелс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee774178-892b-46d4-899b-811f7f6bd3e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чивас Ригал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
   </si>
 </sst>
 </file>
@@ -172,12 +325,12 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.71"/>
@@ -200,159 +353,339 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>182.99</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>215.36</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>265.57</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>166.47</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>168.25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>132.88</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2700.79</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3100.33</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1850.42</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>420.78</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>440.11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>520.08</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+    </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -325,10 +325,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>

--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -325,14 +325,14 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="77.71"/>
   </cols>

--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -324,11 +324,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>

--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -325,10 +325,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>

--- a/src/menu/admin/Menu.xlsx
+++ b/src/menu/admin/Menu.xlsx
@@ -325,10 +325,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.92"/>
